--- a/data/swim_locations.xlsx
+++ b/data/swim_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langt\Documents\GitHub\swim_nl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0740665A-254D-4975-89A5-84B4B2B5D50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6922F91-9C2A-4247-98CA-890600B7179C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{2B70663B-0FB2-4909-BB90-064EC3C674D3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -46,40 +46,70 @@
     <t>Contributor</t>
   </si>
   <si>
-    <t>Sloterplas</t>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>Sloterplas (North pier)</t>
+  </si>
+  <si>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>Sloterplas (North beach)</t>
+  </si>
+  <si>
+    <t>Official</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Diemerpark strand</t>
+  </si>
+  <si>
+    <t>Photos</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c1/Rlogo.png/274px-Rlogo.png</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>No photo yet</t>
+  </si>
+  <si>
+    <t>Official swim spot</t>
+  </si>
+  <si>
+    <t>Not official swim spot</t>
   </si>
   <si>
     <t>Ladder entry</t>
   </si>
   <si>
-    <t>Ladder exit</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Depth at entry</t>
-  </si>
-  <si>
-    <t>2m</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lng</t>
+    <t>Beach entry</t>
+  </si>
+  <si>
+    <t>Too shallow for proper swimming</t>
+  </si>
+  <si>
+    <t>Popular spot for swimmers</t>
+  </si>
+  <si>
+    <t>Popular for families</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,9 +139,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,73 +455,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C6819C-BBBA-4479-8140-6127426582A1}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
     <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="24.54296875" customWidth="1"/>
     <col min="6" max="6" width="16.08984375" customWidth="1"/>
-    <col min="7" max="8" width="13.7265625" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" customWidth="1"/>
+    <col min="8" max="9" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>52.370597600000004</v>
+      </c>
+      <c r="I2">
+        <v>4.8209964999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>52.371551400000001</v>
+      </c>
+      <c r="I3">
+        <v>4.8225343000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1">
-        <v>52.370086499999999</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4.8200564000000004</v>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>52.354283799999997</v>
+      </c>
+      <c r="I4">
+        <v>4.9843270999999998</v>
       </c>
     </row>
   </sheetData>

--- a/data/swim_locations.xlsx
+++ b/data/swim_locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langt\Documents\GitHub\swim_nl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6922F91-9C2A-4247-98CA-890600B7179C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC041E62-1761-4456-87B2-4437EF2B04B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{2B70663B-0FB2-4909-BB90-064EC3C674D3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Used before</t>
   </si>
   <si>
-    <t>Contributor</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
     <t>lat</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>Official</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Diemerpark strand</t>
   </si>
   <si>
@@ -85,35 +76,43 @@
     <t>No photo yet</t>
   </si>
   <si>
-    <t>Official swim spot</t>
-  </si>
-  <si>
-    <t>Not official swim spot</t>
-  </si>
-  <si>
     <t>Ladder entry</t>
   </si>
   <si>
     <t>Beach entry</t>
   </si>
   <si>
-    <t>Too shallow for proper swimming</t>
-  </si>
-  <si>
-    <t>Popular spot for swimmers</t>
-  </si>
-  <si>
-    <t>Popular for families</t>
+    <t>https://www.zwemwater.nl/?id=6170040</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>https://www.zwemwater.nl/?id=6026764</t>
+  </si>
+  <si>
+    <t>Not official</t>
+  </si>
+  <si>
+    <t>Official outdoor swim spot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,13 +135,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C6819C-BBBA-4479-8140-6127426582A1}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,131 +468,122 @@
     <col min="1" max="1" width="24.1796875" customWidth="1"/>
     <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="24.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" customWidth="1"/>
-    <col min="8" max="9" width="13.7265625" customWidth="1"/>
+    <col min="4" max="4" width="38.6328125" customWidth="1"/>
+    <col min="5" max="5" width="43.1796875" customWidth="1"/>
+    <col min="6" max="6" width="41.90625" customWidth="1"/>
+    <col min="7" max="8" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>52.370597600000004</v>
       </c>
       <c r="H2">
-        <v>52.370597600000004</v>
-      </c>
-      <c r="I2">
         <v>4.8209964999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>52.371551400000001</v>
       </c>
       <c r="H3">
-        <v>52.371551400000001</v>
-      </c>
-      <c r="I3">
         <v>4.8225343000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>52.354283799999997</v>
       </c>
       <c r="H4">
-        <v>52.354283799999997</v>
-      </c>
-      <c r="I4">
         <v>4.9843270999999998</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{AAC5917E-54F3-42CE-A055-A74DD551D9AA}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{7D16AE2D-1BDF-4F2A-A07F-15C0A2DDCC52}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/swim_locations.xlsx
+++ b/data/swim_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langt\Documents\GitHub\swim_nl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC041E62-1761-4456-87B2-4437EF2B04B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A664E3DA-2295-4259-B588-80B6D3B89A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{2B70663B-0FB2-4909-BB90-064EC3C674D3}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,7 +470,7 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="38.6328125" customWidth="1"/>
     <col min="5" max="5" width="43.1796875" customWidth="1"/>
-    <col min="6" max="6" width="41.90625" customWidth="1"/>
+    <col min="6" max="6" width="58.36328125" customWidth="1"/>
     <col min="7" max="8" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data/swim_locations.xlsx
+++ b/data/swim_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langt\Documents\GitHub\swim_nl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A664E3DA-2295-4259-B588-80B6D3B89A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9BBC06-D080-4035-9704-9E7CF1A45C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{2B70663B-0FB2-4909-BB90-064EC3C674D3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -61,15 +61,9 @@
     <t>Official</t>
   </si>
   <si>
-    <t>Diemerpark strand</t>
-  </si>
-  <si>
     <t>Photos</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c1/Rlogo.png/274px-Rlogo.png</t>
-  </si>
-  <si>
     <t>Use</t>
   </si>
   <si>
@@ -95,6 +89,48 @@
   </si>
   <si>
     <t>Official outdoor swim spot</t>
+  </si>
+  <si>
+    <t>https://github.com/langtonhugh/swim_nl/blob/main/photos/rick.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>Not used yet</t>
+  </si>
+  <si>
+    <t>https://www.zwemwater.nl/?id=7712710</t>
+  </si>
+  <si>
+    <t>https://www.zwemwater.nl/?id=1879</t>
+  </si>
+  <si>
+    <t>Amsterdamse Bos (De Grote Speelweide)</t>
+  </si>
+  <si>
+    <t>Shallow entry</t>
+  </si>
+  <si>
+    <t>https://www.zwemwater.nl/?id=304932</t>
+  </si>
+  <si>
+    <t>Nieuwe meer (Westzijde)</t>
+  </si>
+  <si>
+    <t>Nieuwe meer (Noordoever)</t>
+  </si>
+  <si>
+    <t>Ouderkerkerplas (Zandstrand)</t>
+  </si>
+  <si>
+    <t>https://www.zwemwater.nl/?id=1814</t>
+  </si>
+  <si>
+    <t>https://www.zwemwater.nl/?id=1813</t>
+  </si>
+  <si>
+    <t>Ouderkerkerplas (Groenstrand)</t>
+  </si>
+  <si>
+    <t>Diemerpark</t>
   </si>
 </sst>
 </file>
@@ -457,15 +493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C6819C-BBBA-4479-8140-6127426582A1}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.54296875" customWidth="1"/>
     <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="38.6328125" customWidth="1"/>
@@ -482,16 +518,16 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -505,19 +541,19 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
       <c r="G2">
         <v>52.370597600000004</v>
@@ -531,19 +567,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>52.371551400000001</v>
@@ -554,28 +590,158 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>52.3545838</v>
+      </c>
+      <c r="H4">
+        <v>4.9867271000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>52.334808500000001</v>
+      </c>
+      <c r="H5">
+        <v>4.8155868000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="G4">
-        <v>52.354283799999997</v>
-      </c>
-      <c r="H4">
-        <v>4.9843270999999998</v>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>52.332919400000002</v>
+      </c>
+      <c r="H6">
+        <v>4.8121706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>52.319872699999998</v>
+      </c>
+      <c r="H7">
+        <v>4.8278585999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>52.294760599999996</v>
+      </c>
+      <c r="H8">
+        <v>4.9288781999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>52.2944599</v>
+      </c>
+      <c r="H9">
+        <v>4.9253914999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/swim_locations.xlsx
+++ b/data/swim_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langt\Documents\GitHub\swim_nl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9BBC06-D080-4035-9704-9E7CF1A45C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EEFA3C-4D96-41BE-BB36-44937DCB7055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{2B70663B-0FB2-4909-BB90-064EC3C674D3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Diemerpark</t>
+  </si>
+  <si>
+    <t>Nieuwe meer (West pier)</t>
   </si>
 </sst>
 </file>
@@ -493,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C6819C-BBBA-4479-8140-6127426582A1}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,7 +656,7 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
@@ -742,14 +745,38 @@
       </c>
       <c r="H9">
         <v>4.9253914999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>52.3315938</v>
+      </c>
+      <c r="H10">
+        <v>4.8103305000000001</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{AAC5917E-54F3-42CE-A055-A74DD551D9AA}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{7D16AE2D-1BDF-4F2A-A07F-15C0A2DDCC52}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{F3A08969-2432-4F92-8594-B5502B2E2D7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/data/swim_locations.xlsx
+++ b/data/swim_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langt\Documents\GitHub\swim_nl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EEFA3C-4D96-41BE-BB36-44937DCB7055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22206B8-2D2D-4B0B-BC56-62E0D6BA0F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{2B70663B-0FB2-4909-BB90-064EC3C674D3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Official outdoor swim spot</t>
   </si>
   <si>
-    <t>https://github.com/langtonhugh/swim_nl/blob/main/photos/rick.jpg?raw=true</t>
-  </si>
-  <si>
     <t>Not used yet</t>
   </si>
   <si>
@@ -134,6 +131,15 @@
   </si>
   <si>
     <t>Nieuwe meer (West pier)</t>
+  </si>
+  <si>
+    <t>https://github.com/langtonhugh/swim_nl/blob/main/photos/nieuwemeer1.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/langtonhugh/swim_nl/blob/main/photos/sloterplas3.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/langtonhugh/swim_nl/blob/main/photos/sloterbeach1.jpg</t>
   </si>
 </sst>
 </file>
@@ -498,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C6819C-BBBA-4479-8140-6127426582A1}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,7 +515,7 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="38.6328125" customWidth="1"/>
     <col min="5" max="5" width="43.1796875" customWidth="1"/>
-    <col min="6" max="6" width="58.36328125" customWidth="1"/>
+    <col min="6" max="6" width="68.6328125" customWidth="1"/>
     <col min="7" max="8" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -556,7 +562,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G2">
         <v>52.370597600000004</v>
@@ -582,7 +588,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G3">
         <v>52.371551400000001</v>
@@ -593,7 +599,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -619,19 +625,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -645,19 +651,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -671,19 +677,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -697,19 +703,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -723,19 +729,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -749,10 +755,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -761,7 +767,10 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
       </c>
       <c r="G10">
         <v>52.3315938</v>

--- a/data/swim_locations.xlsx
+++ b/data/swim_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langt\Documents\GitHub\swim_nl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22206B8-2D2D-4B0B-BC56-62E0D6BA0F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EE1484-B010-427D-99C4-0D60C489067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{2B70663B-0FB2-4909-BB90-064EC3C674D3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -133,13 +133,34 @@
     <t>Nieuwe meer (West pier)</t>
   </si>
   <si>
-    <t>https://github.com/langtonhugh/swim_nl/blob/main/photos/nieuwemeer1.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/langtonhugh/swim_nl/blob/main/photos/sloterplas3.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/langtonhugh/swim_nl/blob/main/photos/sloterbeach1.jpg</t>
+    <t>https://github.com/langtonhugh/swim_nl/blob/main/photos/sloterplas3.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/langtonhugh/swim_nl/blob/main/photos/sloterbeach1.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/langtonhugh/swim_nl/blob/main/photos/nieuwemeer1.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Good for open water swimming</t>
+  </si>
+  <si>
+    <t>Too shallow for swimming</t>
+  </si>
+  <si>
+    <t>Good access to open water</t>
+  </si>
+  <si>
+    <t>Protected from boats</t>
+  </si>
+  <si>
+    <t>Too small and shallow for swimming</t>
+  </si>
+  <si>
+    <t>No commens yet</t>
   </si>
 </sst>
 </file>
@@ -502,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C6819C-BBBA-4479-8140-6127426582A1}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,12 +535,13 @@
     <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="38.6328125" customWidth="1"/>
-    <col min="5" max="5" width="43.1796875" customWidth="1"/>
-    <col min="6" max="6" width="68.6328125" customWidth="1"/>
-    <col min="7" max="8" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="60.08984375" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" customWidth="1"/>
+    <col min="7" max="7" width="68.6328125" customWidth="1"/>
+    <col min="8" max="9" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,19 +555,22 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -558,20 +583,23 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
         <v>52.370597600000004</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4.8209964999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -584,20 +612,23 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
         <v>52.371551400000001</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4.8225343000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -611,19 +642,22 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>52.3545838</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4.9867271000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -637,19 +671,22 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>52.334808500000001</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4.8155868000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -662,20 +699,23 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>52.332919400000002</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>4.8121706</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -689,19 +729,22 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>52.319872699999998</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4.8278585999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -715,19 +758,22 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>10</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>52.294760599999996</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>4.9288781999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -741,19 +787,22 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>10</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>52.2944599</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>4.9253914999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -767,23 +816,26 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10">
         <v>52.3315938</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>4.8103305000000001</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{AAC5917E-54F3-42CE-A055-A74DD551D9AA}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{7D16AE2D-1BDF-4F2A-A07F-15C0A2DDCC52}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{F3A08969-2432-4F92-8594-B5502B2E2D7C}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{AAC5917E-54F3-42CE-A055-A74DD551D9AA}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{7D16AE2D-1BDF-4F2A-A07F-15C0A2DDCC52}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{F3A08969-2432-4F92-8594-B5502B2E2D7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
